--- a/data/surge/surgeData331.xlsx
+++ b/data/surge/surgeData331.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/R10/CH4_331_Springfield/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{521D5FFC-CEC0-406F-87C6-68F9F8D55948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F18BA3-7A4D-4457-A78A-974BD82C2E42}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{521D5FFC-CEC0-406F-87C6-68F9F8D55948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4261AD24-DC9C-4DE1-BEE9-812E7578DAB4}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="2160" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">data!$B$2:$BP$47</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="6"/>
+  <calcPr calcId="191028" concurrentManualCount="4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="293">
   <si>
     <t>F1</t>
   </si>
@@ -836,85 +836,88 @@
     <t>18R100207</t>
   </si>
   <si>
+    <t>11:15:00</t>
+  </si>
+  <si>
+    <t>12:45:00</t>
+  </si>
+  <si>
+    <t>11:05:00</t>
+  </si>
+  <si>
+    <t>12:27:00</t>
+  </si>
+  <si>
+    <t>13:18:00</t>
+  </si>
+  <si>
+    <t>15:27:00</t>
+  </si>
+  <si>
+    <t>14:56:00</t>
+  </si>
+  <si>
+    <t>14:09:00</t>
+  </si>
+  <si>
+    <t>14:37:00</t>
+  </si>
+  <si>
+    <t>15:40:00</t>
+  </si>
+  <si>
+    <t>12:41:00</t>
+  </si>
+  <si>
+    <t>10:42:00</t>
+  </si>
+  <si>
+    <t>11:18:00</t>
+  </si>
+  <si>
+    <t>12:31:00</t>
+  </si>
+  <si>
+    <t>10:53:00</t>
+  </si>
+  <si>
+    <t>13:50:00</t>
+  </si>
+  <si>
+    <t>10:28:00</t>
+  </si>
+  <si>
+    <t>14:42:00</t>
+  </si>
+  <si>
+    <t>12:57:00</t>
+  </si>
+  <si>
+    <t>12:19:00</t>
+  </si>
+  <si>
+    <t>11:06:00</t>
+  </si>
+  <si>
+    <t>9:58:00</t>
+  </si>
+  <si>
+    <t>9:44:00</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
+  </si>
+  <si>
+    <t>11:57:00</t>
+  </si>
+  <si>
     <t>13:03:00</t>
   </si>
   <si>
     <t>10:49:00</t>
   </si>
   <si>
-    <t>11:15:00</t>
-  </si>
-  <si>
-    <t>12:45:00</t>
-  </si>
-  <si>
-    <t>11:05:00</t>
-  </si>
-  <si>
-    <t>12:27:00</t>
-  </si>
-  <si>
     <t>10:35:00</t>
-  </si>
-  <si>
-    <t>13:18:00</t>
-  </si>
-  <si>
-    <t>15:27:00</t>
-  </si>
-  <si>
-    <t>14:56:00</t>
-  </si>
-  <si>
-    <t>14:09:00</t>
-  </si>
-  <si>
-    <t>14:37:00</t>
-  </si>
-  <si>
-    <t>15:40:00</t>
-  </si>
-  <si>
-    <t>12:41:00</t>
-  </si>
-  <si>
-    <t>10:42:00</t>
-  </si>
-  <si>
-    <t>11:18:00</t>
-  </si>
-  <si>
-    <t>12:31:00</t>
-  </si>
-  <si>
-    <t>10:53:00</t>
-  </si>
-  <si>
-    <t>13:50:00</t>
-  </si>
-  <si>
-    <t>10:28:00</t>
-  </si>
-  <si>
-    <t>14:42:00</t>
-  </si>
-  <si>
-    <t>12:57:00</t>
-  </si>
-  <si>
-    <t>12:19:00</t>
-  </si>
-  <si>
-    <t>11:06:00</t>
-  </si>
-  <si>
-    <t>9:58:00</t>
-  </si>
-  <si>
-    <t>9:44:00</t>
-  </si>
-  <si>
-    <t>12:10:00</t>
   </si>
   <si>
     <t>13:17:00</t>
@@ -1895,78 +1898,78 @@
   <dimension ref="A1:BZ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I15" sqref="I15"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" customWidth="1"/>
+    <col min="31" max="31" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" customWidth="1"/>
-    <col min="51" max="51" width="8.33203125" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.33203125" customWidth="1"/>
-    <col min="65" max="65" width="14.88671875" customWidth="1"/>
-    <col min="66" max="66" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" customWidth="1"/>
+    <col min="51" max="51" width="8.28515625" customWidth="1"/>
+    <col min="52" max="52" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.28515625" customWidth="1"/>
+    <col min="65" max="65" width="14.85546875" customWidth="1"/>
+    <col min="66" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2061,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>331</v>
       </c>
@@ -2313,14 +2316,14 @@
       <c r="F3" t="s">
         <v>210</v>
       </c>
-      <c r="G3" s="27">
-        <v>0.49791666666666662</v>
+      <c r="G3" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="H3" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>291</v>
+      <c r="I3" s="25" t="s">
+        <v>292</v>
       </c>
       <c r="J3">
         <v>220</v>
@@ -2403,7 +2406,7 @@
       <c r="BY3" s="29"/>
       <c r="BZ3" s="26"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>331</v>
       </c>
@@ -2422,14 +2425,14 @@
       <c r="F4" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>264</v>
+      <c r="G4" s="25" t="s">
+        <v>289</v>
       </c>
       <c r="H4" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>277</v>
+      <c r="I4" s="25" t="s">
+        <v>274</v>
       </c>
       <c r="J4">
         <v>67</v>
@@ -2501,7 +2504,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>331</v>
       </c>
@@ -2520,14 +2523,14 @@
       <c r="F5" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>265</v>
+      <c r="G5" s="25" t="s">
+        <v>290</v>
       </c>
       <c r="H5" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>278</v>
+      <c r="I5" s="25" t="s">
+        <v>275</v>
       </c>
       <c r="J5">
         <v>176</v>
@@ -2605,7 +2608,7 @@
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>331</v>
       </c>
@@ -2624,14 +2627,14 @@
       <c r="F6" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>266</v>
+      <c r="G6" s="25" t="s">
+        <v>264</v>
       </c>
       <c r="H6" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>279</v>
+      <c r="I6" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="J6">
         <v>215</v>
@@ -2709,7 +2712,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>331</v>
       </c>
@@ -2728,14 +2731,14 @@
       <c r="F7" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>267</v>
+      <c r="G7" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="H7" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>280</v>
+      <c r="I7" s="25" t="s">
+        <v>277</v>
       </c>
       <c r="J7">
         <v>87</v>
@@ -2813,7 +2816,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>331</v>
       </c>
@@ -2832,14 +2835,14 @@
       <c r="F8" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>268</v>
+      <c r="G8" s="25" t="s">
+        <v>266</v>
       </c>
       <c r="H8" t="s">
         <v>211</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>281</v>
+      <c r="I8" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="J8">
         <v>68</v>
@@ -2917,7 +2920,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>331</v>
       </c>
@@ -2936,14 +2939,14 @@
       <c r="F9" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>269</v>
+      <c r="G9" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="H9" t="s">
         <v>211</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>282</v>
+      <c r="I9" s="25" t="s">
+        <v>279</v>
       </c>
       <c r="J9">
         <v>62</v>
@@ -3018,7 +3021,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>331</v>
       </c>
@@ -3037,14 +3040,14 @@
       <c r="F10" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>270</v>
+      <c r="G10" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="H10" t="s">
         <v>211</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>283</v>
+      <c r="I10" s="25" t="s">
+        <v>280</v>
       </c>
       <c r="J10">
         <v>80</v>
@@ -3122,7 +3125,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>331</v>
       </c>
@@ -3141,14 +3144,14 @@
       <c r="F11" t="s">
         <v>210</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>269</v>
+      <c r="G11" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="H11" t="s">
         <v>211</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>284</v>
+      <c r="I11" s="25" t="s">
+        <v>281</v>
       </c>
       <c r="J11">
         <v>177</v>
@@ -3226,7 +3229,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>331</v>
       </c>
@@ -3245,14 +3248,14 @@
       <c r="F12" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>271</v>
+      <c r="G12" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="H12" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>285</v>
+      <c r="I12" s="25" t="s">
+        <v>282</v>
       </c>
       <c r="J12">
         <v>365</v>
@@ -3330,7 +3333,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>331</v>
       </c>
@@ -3349,14 +3352,14 @@
       <c r="F13" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>272</v>
+      <c r="G13" s="25" t="s">
+        <v>269</v>
       </c>
       <c r="H13" t="s">
         <v>211</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>286</v>
+      <c r="I13" s="25" t="s">
+        <v>283</v>
       </c>
       <c r="J13">
         <v>42</v>
@@ -3425,7 +3428,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>331</v>
       </c>
@@ -3444,14 +3447,14 @@
       <c r="F14" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>273</v>
+      <c r="G14" s="25" t="s">
+        <v>270</v>
       </c>
       <c r="H14" t="s">
         <v>211</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>287</v>
+      <c r="I14" s="25" t="s">
+        <v>284</v>
       </c>
       <c r="J14">
         <v>60</v>
@@ -3523,7 +3526,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>331</v>
       </c>
@@ -3542,14 +3545,14 @@
       <c r="F15" t="s">
         <v>210</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>274</v>
+      <c r="G15" s="25" t="s">
+        <v>271</v>
       </c>
       <c r="H15" t="s">
         <v>211</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>288</v>
+      <c r="I15" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="J15">
         <v>35</v>
@@ -3630,7 +3633,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>331</v>
       </c>
@@ -3649,14 +3652,14 @@
       <c r="F16" t="s">
         <v>210</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>275</v>
+      <c r="G16" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="H16" t="s">
         <v>211</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>289</v>
+      <c r="I16" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -3734,7 +3737,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>331</v>
       </c>
@@ -3753,14 +3756,14 @@
       <c r="F17" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>276</v>
+      <c r="G17" s="25" t="s">
+        <v>273</v>
       </c>
       <c r="H17" t="s">
         <v>211</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>290</v>
+      <c r="I17" s="25" t="s">
+        <v>287</v>
       </c>
       <c r="J17">
         <v>59</v>
@@ -3832,7 +3835,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>331</v>
       </c>
@@ -3842,10 +3845,8 @@
       <c r="C18" t="s">
         <v>209</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="U18" s="27"/>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>331</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>331</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>331</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>331</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>331</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>331</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>331</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>331</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>331</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>331</v>
       </c>
@@ -3978,14 +3979,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4018,7 +4019,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4095,7 +4096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4248,7 +4249,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4344,7 +4345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4768,18 +4769,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="25"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="25"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4795,7 +4796,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4829,7 +4830,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>259</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>259</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>259</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>259</v>
       </c>
@@ -4962,14 +4963,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>162</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>163</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>164</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>165</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>166</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>167</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>168</v>
       </c>
@@ -5082,6 +5083,62 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5552,63 +5609,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00C0C330-DE6C-43A9-ABBF-85BC796EC8F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5629,34 +5660,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>